--- a/docss/trend/spain/E_ataxy.xlsx
+++ b/docss/trend/spain/E_ataxy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:F25"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,216 +1714,188 @@
       <c r="D1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>4.9236248945817351E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C2" s="9">
-        <v>1.7640440259128809E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D2" s="9">
-        <v>1.5158752677962184E-2</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>6.1689027352258563E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>2.6246170746162534E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D3" s="9">
-        <v>3.0982810421846807E-2</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+        <v>3.1E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>6.9352410151623189E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C4" s="9">
-        <v>4.8880735179409385E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D4" s="9">
-        <v>7.8448383137583733E-3</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>8.0770122120156884E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C5" s="9">
-        <v>4.0784548502415419E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D5" s="9">
-        <v>1.6233733622357249E-2</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>7.95511060860008E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C6" s="9">
-        <v>4.5352918561547995E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D6" s="9">
-        <v>1.23316211393103E-2</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>5.9673655312508345E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C7" s="9">
-        <v>2.219309750944376E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D7" s="9">
-        <v>2.3511525709182024E-2</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+        <v>2.4E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
       <c r="B8" s="9">
-        <v>6.3922784058377147E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C8" s="9">
-        <v>4.1053285589441657E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D8" s="9">
-        <v>2.445663814432919E-2</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>2.4E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>4.79719900758937E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C9" s="9">
-        <v>1.0006860829889774E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D9" s="9">
-        <v>2.3018326959572732E-2</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+        <v>2.3E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>6.2752221478149295E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C10" s="9">
-        <v>4.7743638278916478E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D10" s="9">
-        <v>1.3068789849057794E-2</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
       <c r="B11" s="9">
-        <v>5.6040608906187117E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C11" s="9">
-        <v>2.0268459804356098E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11" s="9">
-        <v>2.9975107638165355E-2</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>6.2107497244141996E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C12" s="9">
-        <v>3.378817904740572E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>3.8810996455140412E-2</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+        <v>3.9E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
       <c r="B13" s="9">
-        <v>8.4882518742233515E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C13" s="9">
-        <v>4.6369042713195086E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D13" s="9">
-        <v>3.343274537473917E-2</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
       <c r="B14" s="9">
-        <v>8.8964690221473575E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C14" s="9">
-        <v>6.1002274043858051E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D14" s="9">
-        <v>3.3758985460735857E-2</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
